--- a/case 5/private and cons.xlsx
+++ b/case 5/private and cons.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="32">
   <si>
     <t xml:space="preserve">Test Case No  </t>
   </si>
@@ -37,9 +37,6 @@
     <t>to initialize private variable</t>
   </si>
   <si>
-    <t xml:space="preserve"> to know order of constructor and destructors</t>
-  </si>
-  <si>
     <t>num1=12</t>
   </si>
   <si>
@@ -100,19 +97,19 @@
     <t>derived class constructor is invoked</t>
   </si>
   <si>
-    <t>derived1 class constructor is invoked</t>
-  </si>
-  <si>
     <t>derived class destructor is invoked</t>
   </si>
   <si>
-    <t>derived1 class destructor is invoked</t>
-  </si>
-  <si>
     <t>base class destructor is invoked</t>
   </si>
   <si>
     <t>test class destructor is invoked</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to know order of constructor and destructors with virtual</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to know order of constructor and destructors without virtual</t>
   </si>
 </sst>
 </file>
@@ -462,16 +459,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.85546875" customWidth="1"/>
+    <col min="2" max="2" width="53.85546875" customWidth="1"/>
     <col min="3" max="3" width="28.28515625" customWidth="1"/>
     <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.28515625" customWidth="1"/>
@@ -505,257 +502,258 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
       <c r="E21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="F23" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
         <v>28</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E36" t="s">
         <v>28</v>
       </c>
-      <c r="F26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
+      <c r="F36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
         <v>29</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E37" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
-        <v>32</v>
-      </c>
-      <c r="E32" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/case 5/private and cons.xlsx
+++ b/case 5/private and cons.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="26">
   <si>
     <t xml:space="preserve">Test Case No  </t>
   </si>
@@ -52,36 +52,6 @@
     <t>num1=23</t>
   </si>
   <si>
-    <t>num2=2.3</t>
-  </si>
-  <si>
-    <t>using friend class</t>
-  </si>
-  <si>
-    <t>num1=15</t>
-  </si>
-  <si>
-    <t>num2=2.698</t>
-  </si>
-  <si>
-    <t>default constructor</t>
-  </si>
-  <si>
-    <t>num1=100</t>
-  </si>
-  <si>
-    <t>num2=200</t>
-  </si>
-  <si>
-    <t>parameterized constructor</t>
-  </si>
-  <si>
-    <t>num1=20</t>
-  </si>
-  <si>
-    <t>num2=10.2</t>
-  </si>
-  <si>
     <t>PASS</t>
   </si>
   <si>
@@ -110,6 +80,18 @@
   </si>
   <si>
     <t xml:space="preserve"> to know order of constructor and destructors without virtual</t>
+  </si>
+  <si>
+    <t>num2=21.5</t>
+  </si>
+  <si>
+    <t>using initialization list</t>
+  </si>
+  <si>
+    <t>5 53.2</t>
+  </si>
+  <si>
+    <t>10 20.36</t>
   </si>
 </sst>
 </file>
@@ -461,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,80 +478,77 @@
     </row>
     <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
@@ -577,13 +556,10 @@
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
       <c r="D9" t="s">
         <v>7</v>
       </c>
@@ -592,9 +568,6 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
       <c r="D10" t="s">
         <v>8</v>
       </c>
@@ -602,158 +575,110 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" t="s">
-        <v>15</v>
-      </c>
-    </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E23" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E24" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E25" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E26" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E33" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E35" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E36" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F36" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E37" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/case 5/private and cons.xlsx
+++ b/case 5/private and cons.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="22">
   <si>
     <t xml:space="preserve">Test Case No  </t>
   </si>
@@ -37,21 +37,6 @@
     <t>to initialize private variable</t>
   </si>
   <si>
-    <t>num1=12</t>
-  </si>
-  <si>
-    <t>num2=13.5</t>
-  </si>
-  <si>
-    <t>using friend function</t>
-  </si>
-  <si>
-    <t>using member function</t>
-  </si>
-  <si>
-    <t>num1=23</t>
-  </si>
-  <si>
     <t>PASS</t>
   </si>
   <si>
@@ -82,16 +67,19 @@
     <t xml:space="preserve"> to know order of constructor and destructors without virtual</t>
   </si>
   <si>
-    <t>num2=21.5</t>
-  </si>
-  <si>
     <t>using initialization list</t>
   </si>
   <si>
-    <t>5 53.2</t>
-  </si>
-  <si>
-    <t>10 20.36</t>
+    <t>to initialize private variables using constructors</t>
+  </si>
+  <si>
+    <t>10 f</t>
+  </si>
+  <si>
+    <t>5 d</t>
+  </si>
+  <si>
+    <t>100 d</t>
   </si>
 </sst>
 </file>
@@ -134,9 +122,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,7 +433,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,201 +473,166 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
         <v>7</v>
       </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E26" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E33" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E36" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E37" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
